--- a/output/음식점 모음.xlsx
+++ b/output/음식점 모음.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milky\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sbr\restaurant-for-media\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC80A152-82A2-4C15-BEE8-AF50E1784425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666B3431-93C5-4420-ADB3-A61451CB7B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-285" yWindow="180" windowWidth="20550" windowHeight="14250" xr2:uid="{83B19DF2-E860-4C3F-AD12-FA3CF2B0A233}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20550" windowHeight="14250" xr2:uid="{83B19DF2-E860-4C3F-AD12-FA3CF2B0A233}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>김준현</t>
   </si>
   <si>
-    <t>산골농원(가평)</t>
-  </si>
-  <si>
     <t>도두반점</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>엘더버거</t>
   </si>
   <si>
-    <t>삼대천왕 - 지린성</t>
-  </si>
-  <si>
     <t>나진국밥</t>
   </si>
   <si>
@@ -156,15 +150,6 @@
     <t>원조수구레</t>
   </si>
   <si>
-    <t>아 이맛이야 장작철판구이</t>
-  </si>
-  <si>
-    <t>삼대천왕 - 고단백식당</t>
-  </si>
-  <si>
-    <t>시골집(을지로)</t>
-  </si>
-  <si>
     <t>봉피양샤브</t>
   </si>
   <si>
@@ -180,9 +165,6 @@
     <t>빵곱창</t>
   </si>
   <si>
-    <t>스트릿푸드파이터 - 짜런쌩 씰롬</t>
-  </si>
-  <si>
     <t>춘향미엔</t>
   </si>
   <si>
@@ -219,9 +201,6 @@
     <t>대게 좋은 날</t>
   </si>
   <si>
-    <t>삼대천왕 - 순심원</t>
-  </si>
-  <si>
     <t>강남혜장국</t>
   </si>
   <si>
@@ -258,9 +237,6 @@
     <t>진대감</t>
   </si>
   <si>
-    <t>간장 닭갈비 공주짐</t>
-  </si>
-  <si>
     <t>구반포</t>
   </si>
   <si>
@@ -333,9 +309,6 @@
     <t>송쉐프</t>
   </si>
   <si>
-    <t>삼대천왕 - 첨일만두</t>
-  </si>
-  <si>
     <t>장가라라멘</t>
   </si>
   <si>
@@ -351,18 +324,12 @@
     <t>맛나게장</t>
   </si>
   <si>
-    <t>전통아바이순대(산림동)</t>
-  </si>
-  <si>
     <t>정가네 손칼국수</t>
   </si>
   <si>
     <t>월래순교자관만두</t>
   </si>
   <si>
-    <t>한방통닭(소화제)</t>
-  </si>
-  <si>
     <t>낙원곱창</t>
   </si>
   <si>
@@ -390,18 +357,12 @@
     <t>원조 두꺼비 불오징어</t>
   </si>
   <si>
-    <t>포천 곱창전골</t>
-  </si>
-  <si>
     <t>진옥화할매원조닭한마리</t>
   </si>
   <si>
     <t>명동교자</t>
   </si>
   <si>
-    <t>수요미식회 - 부첼리하우스</t>
-  </si>
-  <si>
     <t>의령식당</t>
   </si>
   <si>
@@ -467,93 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울 약수 금돼지식당</t>
-  </si>
-  <si>
-    <t>해운대 그랜드조선 부산 뷔페 아리아</t>
-  </si>
-  <si>
-    <t>부산 기장군 바이킹스 워프</t>
-  </si>
-  <si>
-    <t>부산 용호동 차이나반점</t>
-  </si>
-  <si>
-    <t>부산 화명동 가쯔렛</t>
-  </si>
-  <si>
-    <t>부산 광안리 삼오불고기</t>
-  </si>
-  <si>
-    <t>해운대 시그니엘부산 더뷰</t>
-  </si>
-  <si>
-    <t>부산 서면 티파니돈까스</t>
-  </si>
-  <si>
-    <t>울산 성남동 쫀드기집</t>
-  </si>
-  <si>
-    <t>부산 대연동 우두머리</t>
-  </si>
-  <si>
-    <t>부산 대연동 김유순대구뽈찜</t>
-  </si>
-  <si>
-    <t>부산 영도 영도뼈다귀해장국</t>
-  </si>
-  <si>
-    <t>부산 초량 천백돈까스</t>
-  </si>
-  <si>
-    <t>부산 해운대 타이가 텐푸라</t>
-  </si>
-  <si>
-    <t>부산 망미동 코카모메</t>
-  </si>
-  <si>
-    <t>해운대 그랜드조선 부산 팔레드신</t>
-  </si>
-  <si>
-    <t>부산 해운대 안동상회</t>
-  </si>
-  <si>
-    <t>부산 수안동 꼬리집</t>
-  </si>
-  <si>
-    <t>부산 중구 중앙동 돌쇠장작구이</t>
-  </si>
-  <si>
-    <t>부산시 기장군 대게만찬</t>
-  </si>
-  <si>
-    <t>경남 통영 생선구이</t>
-  </si>
-  <si>
-    <t>부산 해운대 중동 가마솥 돼지갈비</t>
-  </si>
-  <si>
-    <t>부산 이케아 동부산점</t>
-  </si>
-  <si>
-    <t>부산 연제구 연산동 연산낙지해물탕</t>
-  </si>
-  <si>
-    <t>부산 연산동 연동시장 소문난순대</t>
-  </si>
-  <si>
-    <t>부산 초읍동 나탄 약선요리</t>
-  </si>
-  <si>
-    <t>부산 중앙동 일신슈퍼</t>
-  </si>
-  <si>
-    <t>명장동 명동돼지숯불갈비</t>
-  </si>
-  <si>
-    <t>부산 송정 구로마쯔</t>
-  </si>
-  <si>
     <t>정식당</t>
   </si>
   <si>
@@ -629,9 +503,6 @@
     <t>권숙수</t>
   </si>
   <si>
-    <t>카페 노티드 청담</t>
-  </si>
-  <si>
     <t>목향원</t>
   </si>
   <si>
@@ -710,710 +581,883 @@
     <t>계림</t>
   </si>
   <si>
+    <t>정인면옥 본점</t>
+  </si>
+  <si>
+    <t>키에리</t>
+  </si>
+  <si>
+    <t>수요미식회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성당</t>
+  </si>
+  <si>
+    <t>문개항아리 조천본점</t>
+  </si>
+  <si>
+    <t>장인의집</t>
+  </si>
+  <si>
+    <t>야자수마을카페</t>
+  </si>
+  <si>
+    <t>다우랑</t>
+  </si>
+  <si>
+    <t>강릉갈비찜</t>
+  </si>
+  <si>
+    <t>원조호수삼계탕</t>
+  </si>
+  <si>
+    <t>푸른회식당</t>
+  </si>
+  <si>
+    <t>흔들바위</t>
+  </si>
+  <si>
+    <t>봉평메밀미가연</t>
+  </si>
+  <si>
+    <t>일미닭강정</t>
+  </si>
+  <si>
+    <t>또와요짬뽕</t>
+  </si>
+  <si>
+    <t>산골항아리바베큐</t>
+  </si>
+  <si>
+    <t>제철쌈밥</t>
+  </si>
+  <si>
+    <t>잘빠진메밀 서촌 본점</t>
+  </si>
+  <si>
+    <t>최미자소머리국밥</t>
+  </si>
+  <si>
+    <t>중앙탑메밀마당</t>
+  </si>
+  <si>
+    <t>꾸본난로회</t>
+  </si>
+  <si>
+    <t>파인에이플러스</t>
+  </si>
+  <si>
+    <t>배터지는게장</t>
+  </si>
+  <si>
+    <t>그린횟집</t>
+  </si>
+  <si>
+    <t>대보명가</t>
+  </si>
+  <si>
+    <t>빈해원</t>
+  </si>
+  <si>
+    <t>교동고로케</t>
+  </si>
+  <si>
+    <t>이서방왕족발보쌈 수원본점</t>
+  </si>
+  <si>
+    <t>미친닭 &amp; 취하루</t>
+  </si>
+  <si>
+    <t>나눌터</t>
+  </si>
+  <si>
+    <t>옹기골만찬쌈밥</t>
+  </si>
+  <si>
+    <t>춘천산속에닭갈비</t>
+  </si>
+  <si>
+    <t>호족반</t>
+  </si>
+  <si>
+    <t>생생정보통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디라이프스타일키친 광화문점</t>
+  </si>
+  <si>
+    <t>속초붉은대게수산</t>
+  </si>
+  <si>
+    <t>로쏘 1924</t>
+  </si>
+  <si>
+    <t>배키욘방</t>
+  </si>
+  <si>
+    <t>다연닭갈비</t>
+  </si>
+  <si>
+    <t>르봉뺑</t>
+  </si>
+  <si>
+    <t>솔트24</t>
+  </si>
+  <si>
+    <t>수원의아침</t>
+  </si>
+  <si>
+    <t>불티나만두찐빵</t>
+  </si>
+  <si>
+    <t>수진분식 성남중앙지하쇼핑몰점</t>
+  </si>
+  <si>
+    <t>돌아온떡볶이</t>
+  </si>
+  <si>
+    <t>짱떡볶이</t>
+  </si>
+  <si>
+    <t>나블리 베이커리카페</t>
+  </si>
+  <si>
+    <t>라 스위스</t>
+  </si>
+  <si>
+    <t>르뺑블랑</t>
+  </si>
+  <si>
+    <t>만두장성</t>
+  </si>
+  <si>
+    <t>육림닭강정</t>
+  </si>
+  <si>
+    <t>마초</t>
+  </si>
+  <si>
+    <t>홍천쌀찐빵</t>
+  </si>
+  <si>
+    <t>교암막국수</t>
+  </si>
+  <si>
+    <t>함스베이커리</t>
+  </si>
+  <si>
+    <t>르팡</t>
+  </si>
+  <si>
+    <t>하루베이커리</t>
+  </si>
+  <si>
+    <t>서두산 딤섬</t>
+  </si>
+  <si>
+    <t>삼미당</t>
+  </si>
+  <si>
+    <t>밀베이커리</t>
+  </si>
+  <si>
+    <t>역촌왕돈까스</t>
+  </si>
+  <si>
+    <t>신성당</t>
+  </si>
+  <si>
+    <t>밀한줌 베이커리</t>
+  </si>
+  <si>
+    <t>솔밭가든막국수</t>
+  </si>
+  <si>
+    <t>생활의 달인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성심당 본점</t>
+  </si>
+  <si>
+    <t>안성휴게소(부산방향)</t>
+  </si>
+  <si>
+    <t>명동교자 본점</t>
+  </si>
+  <si>
+    <t>망향휴게소</t>
+  </si>
+  <si>
+    <t>금강휴게소(부산방향)</t>
+  </si>
+  <si>
+    <t>서울만남의광장(부산방향)</t>
+  </si>
+  <si>
+    <t>하우스 베이커리</t>
+  </si>
+  <si>
+    <t>한입소반 숙대본점</t>
+  </si>
+  <si>
+    <t>쉐이크쉑 청담점</t>
+  </si>
+  <si>
+    <t>제스티살룬</t>
+  </si>
+  <si>
+    <t>일심본가콩요리</t>
+  </si>
+  <si>
+    <t>원조남산왕돈까스</t>
+  </si>
+  <si>
+    <t>중앙떡볶이</t>
+  </si>
+  <si>
+    <t>몽탄</t>
+  </si>
+  <si>
+    <t>광릉불고기</t>
+  </si>
+  <si>
+    <t>돈까스잔치 동빙고점</t>
+  </si>
+  <si>
+    <t>유림 강서점</t>
+  </si>
+  <si>
+    <t>헤이메르</t>
+  </si>
+  <si>
+    <t>망원동즉석우동 본점</t>
+  </si>
+  <si>
+    <t>원조순희네빈대떡</t>
+  </si>
+  <si>
+    <t>벌집</t>
+  </si>
+  <si>
+    <t>온천칼국수</t>
+  </si>
+  <si>
+    <t>맘마미아</t>
+  </si>
+  <si>
+    <t>산골농원</t>
+  </si>
+  <si>
+    <t>남문통닭 본점</t>
+  </si>
+  <si>
+    <t>한남동한방통닭</t>
+  </si>
+  <si>
+    <t>카페 차 성수점</t>
+  </si>
+  <si>
+    <t>전지적참견시점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬지네찐빵 슬지제빵소</t>
+  </si>
+  <si>
+    <t>메밀꽃필무렵</t>
+  </si>
+  <si>
+    <t>원조 유박사 곱창</t>
+  </si>
+  <si>
+    <t>새만금횟집</t>
+  </si>
+  <si>
+    <t>바로방</t>
+  </si>
+  <si>
+    <t>할머니학화호두과자 터미널본점</t>
+  </si>
+  <si>
+    <t>대선칼국수</t>
+  </si>
+  <si>
+    <t>솔밭묵집</t>
+  </si>
+  <si>
+    <t>서문우동</t>
+  </si>
+  <si>
+    <t>화랑식당</t>
+  </si>
+  <si>
+    <t>명가충무김밥 본점</t>
+  </si>
+  <si>
+    <t>제일식당</t>
+  </si>
+  <si>
+    <t>미진돌곱창</t>
+  </si>
+  <si>
+    <t>어부신광호</t>
+  </si>
+  <si>
+    <t>북일곰탕</t>
+  </si>
+  <si>
+    <t>삼포가든</t>
+  </si>
+  <si>
+    <t>농부밥상</t>
+  </si>
+  <si>
+    <t>포항할매집</t>
+  </si>
+  <si>
+    <t>대박집</t>
+  </si>
+  <si>
+    <t>내포해물촌</t>
+  </si>
+  <si>
+    <t>오가네빵</t>
+  </si>
+  <si>
+    <t>충무로쭈꾸미불고기 충무로본점</t>
+  </si>
+  <si>
+    <t>돌담</t>
+  </si>
+  <si>
+    <t>신식당</t>
+  </si>
+  <si>
+    <t>푸른동산 한우마을</t>
+  </si>
+  <si>
+    <t>평화떡공방</t>
+  </si>
+  <si>
+    <t>이순신꿀빵</t>
+  </si>
+  <si>
+    <t>내대막국수</t>
+  </si>
+  <si>
+    <t>평대성게국수</t>
+  </si>
+  <si>
+    <t>황금떡볶이</t>
+  </si>
+  <si>
+    <t>6시 내 고향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드브릿지</t>
+  </si>
+  <si>
+    <t>강릉 수제 어묵고로케</t>
+  </si>
+  <si>
+    <t>글린공원</t>
+  </si>
+  <si>
+    <t>어거스트 힐 강남점</t>
+  </si>
+  <si>
+    <t>삼고집 파주점</t>
+  </si>
+  <si>
+    <t>제주오성갈치조림</t>
+  </si>
+  <si>
+    <t>칼리오페</t>
+  </si>
+  <si>
+    <t>카페아스타나</t>
+  </si>
+  <si>
+    <t>러블랑</t>
+  </si>
+  <si>
+    <t>메인스트리트</t>
+  </si>
+  <si>
+    <t>닭사부일체 이천본점</t>
+  </si>
+  <si>
+    <t>더포레</t>
+  </si>
+  <si>
+    <t>제로니모 커피하우스</t>
+  </si>
+  <si>
+    <t>막불감동</t>
+  </si>
+  <si>
+    <t>을밀대 평양냉면</t>
+  </si>
+  <si>
+    <t>빵공장라뜰리에김가</t>
+  </si>
+  <si>
+    <t>오늘제빵소</t>
+  </si>
+  <si>
+    <t>라온숨</t>
+  </si>
+  <si>
+    <t>대한횟집 만세튀김</t>
+  </si>
+  <si>
+    <t>신송당</t>
+  </si>
+  <si>
+    <t>이가네떡볶이</t>
+  </si>
+  <si>
+    <t>우스블랑</t>
+  </si>
+  <si>
+    <t>로컬릿</t>
+  </si>
+  <si>
+    <t>헤리베르</t>
+  </si>
+  <si>
+    <t>용호동할매팥빙수단팥죽 본점</t>
+  </si>
+  <si>
+    <t>숲마을</t>
+  </si>
+  <si>
+    <t>서울앵무새</t>
+  </si>
+  <si>
+    <t>골목식당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진상회</t>
+  </si>
+  <si>
+    <t>백세삼계탕</t>
+  </si>
+  <si>
+    <t>북한산제빵소</t>
+  </si>
+  <si>
+    <t>베이커리 밤마을</t>
+  </si>
+  <si>
+    <t>수아당</t>
+  </si>
+  <si>
+    <t>계열사</t>
+  </si>
+  <si>
+    <t>옹근달</t>
+  </si>
+  <si>
+    <t>가람돌솥밥</t>
+  </si>
+  <si>
+    <t>중앙갈치식당</t>
+  </si>
+  <si>
+    <t>시간을 들이다</t>
+  </si>
+  <si>
+    <t>유포리막국수</t>
+  </si>
+  <si>
+    <t>포레스트</t>
+  </si>
+  <si>
+    <t>청수당</t>
+  </si>
+  <si>
+    <t>남보완해물칼국수 울산점</t>
+  </si>
+  <si>
+    <t>코트야드 메리어트 남대문 모모카페</t>
+  </si>
+  <si>
+    <t>송정집</t>
+  </si>
+  <si>
+    <t>가나안국수</t>
+  </si>
+  <si>
+    <t>한국집</t>
+  </si>
+  <si>
+    <t>익선잡방</t>
+  </si>
+  <si>
+    <t>진주냉면산홍 본점</t>
+  </si>
+  <si>
+    <t>무탄</t>
+  </si>
+  <si>
+    <t>릴리베이커리</t>
+  </si>
+  <si>
+    <t>순천미향 제주산방산본점</t>
+  </si>
+  <si>
+    <t>순금이떡볶이아차산점</t>
+  </si>
+  <si>
+    <t>태조감자국</t>
+  </si>
+  <si>
+    <t>두둑한한판</t>
+  </si>
+  <si>
+    <t>생방송 오늘 저녁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연경</t>
+  </si>
+  <si>
+    <t>보스대게</t>
+  </si>
+  <si>
+    <t>마이무</t>
+  </si>
+  <si>
+    <t>진아떡집</t>
+  </si>
+  <si>
+    <t>용성통닭 본점</t>
+  </si>
+  <si>
+    <t>오성당</t>
+  </si>
+  <si>
+    <t>등촌 최월선칼국수</t>
+  </si>
+  <si>
+    <t>강민주의들밥</t>
+  </si>
+  <si>
+    <t>경기떡집</t>
+  </si>
+  <si>
+    <t>정은숙초당순두부</t>
+  </si>
+  <si>
+    <t>풍미통닭</t>
+  </si>
+  <si>
+    <t>회동집</t>
+  </si>
+  <si>
+    <t>로타리식당</t>
+  </si>
+  <si>
+    <t>노라바</t>
+  </si>
+  <si>
+    <t>야바이</t>
+  </si>
+  <si>
+    <t>은하곱창</t>
+  </si>
+  <si>
+    <t>옛날진미국수</t>
+  </si>
+  <si>
+    <t>국물없는우동</t>
+  </si>
+  <si>
+    <t>한식미담길 인천공항제2여객터미널점</t>
+  </si>
+  <si>
+    <t>동원집</t>
+  </si>
+  <si>
+    <t>갈비1987</t>
+  </si>
+  <si>
+    <t>미가</t>
+  </si>
+  <si>
+    <t>혜화칼국수</t>
+  </si>
+  <si>
+    <t>복진면</t>
+  </si>
+  <si>
+    <t>모닝 와이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨엘비베이커리</t>
+  </si>
+  <si>
+    <t>강릉짬뽕순두부 동화가든 본점</t>
+  </si>
+  <si>
+    <t>춘천통나무집닭갈비</t>
+  </si>
+  <si>
+    <t>나정순할매쭈꾸미</t>
+  </si>
+  <si>
+    <t>빕스 대방점</t>
+  </si>
+  <si>
+    <t>동동국수집</t>
+  </si>
+  <si>
+    <t>더아리엘 목동점</t>
+  </si>
+  <si>
+    <t>대원당</t>
+  </si>
+  <si>
+    <t>팔당초계국수본점</t>
+  </si>
+  <si>
+    <t>맘모스베이커리</t>
+  </si>
+  <si>
+    <t>마복림떡볶이</t>
+  </si>
+  <si>
+    <t>뚱보할매김밥집</t>
+  </si>
+  <si>
+    <t>태평소국밥</t>
+  </si>
+  <si>
+    <t>궁전제과 충장점</t>
+  </si>
+  <si>
+    <t>한일옥</t>
+  </si>
+  <si>
+    <t>본수원갈비</t>
+  </si>
+  <si>
+    <t>춘심이네 본점</t>
+  </si>
+  <si>
+    <t>일호점미역</t>
+  </si>
+  <si>
+    <t>오씨칼국수</t>
+  </si>
+  <si>
+    <t>팀호완 삼성점</t>
+  </si>
+  <si>
+    <t>청어람 망원점</t>
+  </si>
+  <si>
+    <t>청진옥</t>
+  </si>
+  <si>
+    <t>오뎅식당</t>
+  </si>
+  <si>
+    <t>조조칼국수 본점</t>
+  </si>
+  <si>
+    <t>맛있는 녀석들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생방송 투데이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산골농원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이맛이야 장작철판구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한방통닭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨일만두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간장 닭갈비 공주집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순심원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜런쌩 씰롬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고단백식당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지린성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시골집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전통아바이순대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부첼리하우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포천곱창전골</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그니엘부산더뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금돼지식당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드조선부산아리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이킹스 워프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차이나반점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가쯔렛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티파니돈까스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼오불고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소문난원조쌈밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쫀드기집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우두머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김유순대구뽈찜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영도뼈다귀해장국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천백돈까스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이가 텐푸라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코카모메</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드조선 부산 팔레드신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동상회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌쇠장작구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대게만찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가마솥 돼지갈비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이케아동부산점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연산낙지해물탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소문난순대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구로마쯔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명동돼지숯불갈비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일신슈퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나탄 약선요리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>수영 돼지국밥</t>
-  </si>
-  <si>
-    <t>정인면옥 본점</t>
-  </si>
-  <si>
-    <t>키에리</t>
-  </si>
-  <si>
-    <t>수요미식회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산 해운대 소문난원조쌈밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이성당</t>
-  </si>
-  <si>
-    <t>문개항아리 조천본점</t>
-  </si>
-  <si>
-    <t>장인의집</t>
-  </si>
-  <si>
-    <t>야자수마을카페</t>
-  </si>
-  <si>
-    <t>다우랑</t>
-  </si>
-  <si>
-    <t>강릉갈비찜</t>
-  </si>
-  <si>
-    <t>원조호수삼계탕</t>
-  </si>
-  <si>
-    <t>푸른회식당</t>
-  </si>
-  <si>
-    <t>흔들바위</t>
-  </si>
-  <si>
-    <t>봉평메밀미가연</t>
-  </si>
-  <si>
-    <t>일미닭강정</t>
-  </si>
-  <si>
-    <t>또와요짬뽕</t>
-  </si>
-  <si>
-    <t>산골항아리바베큐</t>
-  </si>
-  <si>
-    <t>제철쌈밥</t>
-  </si>
-  <si>
-    <t>잘빠진메밀 서촌 본점</t>
-  </si>
-  <si>
-    <t>최미자소머리국밥</t>
-  </si>
-  <si>
-    <t>중앙탑메밀마당</t>
-  </si>
-  <si>
-    <t>꾸본난로회</t>
-  </si>
-  <si>
-    <t>파인에이플러스</t>
-  </si>
-  <si>
-    <t>배터지는게장</t>
-  </si>
-  <si>
-    <t>그린횟집</t>
-  </si>
-  <si>
-    <t>대보명가</t>
-  </si>
-  <si>
-    <t>빈해원</t>
-  </si>
-  <si>
-    <t>교동고로케</t>
-  </si>
-  <si>
-    <t>이서방왕족발보쌈 수원본점</t>
-  </si>
-  <si>
-    <t>미친닭 &amp; 취하루</t>
-  </si>
-  <si>
-    <t>나눌터</t>
-  </si>
-  <si>
-    <t>옹기골만찬쌈밥</t>
-  </si>
-  <si>
-    <t>춘천산속에닭갈비</t>
-  </si>
-  <si>
-    <t>호족반</t>
-  </si>
-  <si>
-    <t>생생정보통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디라이프스타일키친 광화문점</t>
-  </si>
-  <si>
-    <t>속초붉은대게수산</t>
-  </si>
-  <si>
-    <t>로쏘 1924</t>
-  </si>
-  <si>
-    <t>배키욘방</t>
-  </si>
-  <si>
-    <t>다연닭갈비</t>
-  </si>
-  <si>
-    <t>르봉뺑</t>
-  </si>
-  <si>
-    <t>솔트24</t>
-  </si>
-  <si>
-    <t>수원의아침</t>
-  </si>
-  <si>
-    <t>불티나만두찐빵</t>
-  </si>
-  <si>
-    <t>수진분식 성남중앙지하쇼핑몰점</t>
-  </si>
-  <si>
-    <t>돌아온떡볶이</t>
-  </si>
-  <si>
-    <t>짱떡볶이</t>
-  </si>
-  <si>
-    <t>나블리 베이커리카페</t>
-  </si>
-  <si>
-    <t>라 스위스</t>
-  </si>
-  <si>
-    <t>르뺑블랑</t>
-  </si>
-  <si>
-    <t>만두장성</t>
-  </si>
-  <si>
-    <t>육림닭강정</t>
-  </si>
-  <si>
-    <t>마초</t>
-  </si>
-  <si>
-    <t>홍천쌀찐빵</t>
-  </si>
-  <si>
-    <t>교암막국수</t>
-  </si>
-  <si>
-    <t>함스베이커리</t>
-  </si>
-  <si>
-    <t>르팡</t>
-  </si>
-  <si>
-    <t>하루베이커리</t>
-  </si>
-  <si>
-    <t>서두산 딤섬</t>
-  </si>
-  <si>
-    <t>삼미당</t>
-  </si>
-  <si>
-    <t>밀베이커리</t>
-  </si>
-  <si>
-    <t>역촌왕돈까스</t>
-  </si>
-  <si>
-    <t>신성당</t>
-  </si>
-  <si>
-    <t>밀한줌 베이커리</t>
-  </si>
-  <si>
-    <t>솔밭가든막국수</t>
-  </si>
-  <si>
-    <t>생활의 달인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성심당 본점</t>
-  </si>
-  <si>
-    <t>안성휴게소(부산방향)</t>
-  </si>
-  <si>
-    <t>명동교자 본점</t>
-  </si>
-  <si>
-    <t>망향휴게소</t>
-  </si>
-  <si>
-    <t>금강휴게소(부산방향)</t>
-  </si>
-  <si>
-    <t>서울만남의광장(부산방향)</t>
-  </si>
-  <si>
-    <t>하우스 베이커리</t>
-  </si>
-  <si>
-    <t>한입소반 숙대본점</t>
-  </si>
-  <si>
-    <t>쉐이크쉑 청담점</t>
-  </si>
-  <si>
-    <t>제스티살룬</t>
-  </si>
-  <si>
-    <t>일심본가콩요리</t>
-  </si>
-  <si>
-    <t>원조남산왕돈까스</t>
-  </si>
-  <si>
-    <t>중앙떡볶이</t>
-  </si>
-  <si>
-    <t>몽탄</t>
-  </si>
-  <si>
-    <t>광릉불고기</t>
-  </si>
-  <si>
-    <t>돈까스잔치 동빙고점</t>
-  </si>
-  <si>
-    <t>유림 강서점</t>
-  </si>
-  <si>
-    <t>헤이메르</t>
-  </si>
-  <si>
-    <t>망원동즉석우동 본점</t>
-  </si>
-  <si>
-    <t>원조순희네빈대떡</t>
-  </si>
-  <si>
-    <t>벌집</t>
-  </si>
-  <si>
-    <t>온천칼국수</t>
-  </si>
-  <si>
-    <t>맘마미아</t>
-  </si>
-  <si>
-    <t>산골농원</t>
-  </si>
-  <si>
-    <t>남문통닭 본점</t>
-  </si>
-  <si>
-    <t>한남동한방통닭</t>
-  </si>
-  <si>
-    <t>카페 차 성수점</t>
-  </si>
-  <si>
-    <t>전지적참견시점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬지네찐빵 슬지제빵소</t>
-  </si>
-  <si>
-    <t>메밀꽃필무렵</t>
-  </si>
-  <si>
-    <t>원조 유박사 곱창</t>
-  </si>
-  <si>
-    <t>새만금횟집</t>
-  </si>
-  <si>
-    <t>바로방</t>
-  </si>
-  <si>
-    <t>할머니학화호두과자 터미널본점</t>
-  </si>
-  <si>
-    <t>대선칼국수</t>
-  </si>
-  <si>
-    <t>솔밭묵집</t>
-  </si>
-  <si>
-    <t>서문우동</t>
-  </si>
-  <si>
-    <t>화랑식당</t>
-  </si>
-  <si>
-    <t>명가충무김밥 본점</t>
-  </si>
-  <si>
-    <t>제일식당</t>
-  </si>
-  <si>
-    <t>미진돌곱창</t>
-  </si>
-  <si>
-    <t>어부신광호</t>
-  </si>
-  <si>
-    <t>북일곰탕</t>
-  </si>
-  <si>
-    <t>삼포가든</t>
-  </si>
-  <si>
-    <t>농부밥상</t>
-  </si>
-  <si>
-    <t>포항할매집</t>
-  </si>
-  <si>
-    <t>대박집</t>
-  </si>
-  <si>
-    <t>내포해물촌</t>
-  </si>
-  <si>
-    <t>오가네빵</t>
-  </si>
-  <si>
-    <t>충무로쭈꾸미불고기 충무로본점</t>
-  </si>
-  <si>
-    <t>돌담</t>
-  </si>
-  <si>
-    <t>신식당</t>
-  </si>
-  <si>
-    <t>푸른동산 한우마을</t>
-  </si>
-  <si>
-    <t>평화떡공방</t>
-  </si>
-  <si>
-    <t>이순신꿀빵</t>
-  </si>
-  <si>
-    <t>내대막국수</t>
-  </si>
-  <si>
-    <t>평대성게국수</t>
-  </si>
-  <si>
-    <t>황금떡볶이</t>
-  </si>
-  <si>
-    <t>6시 내 고향</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레드브릿지</t>
-  </si>
-  <si>
-    <t>강릉 수제 어묵고로케</t>
-  </si>
-  <si>
-    <t>글린공원</t>
-  </si>
-  <si>
-    <t>어거스트 힐 강남점</t>
-  </si>
-  <si>
-    <t>삼고집 파주점</t>
-  </si>
-  <si>
-    <t>제주오성갈치조림</t>
-  </si>
-  <si>
-    <t>칼리오페</t>
-  </si>
-  <si>
-    <t>카페아스타나</t>
-  </si>
-  <si>
-    <t>러블랑</t>
-  </si>
-  <si>
-    <t>메인스트리트</t>
-  </si>
-  <si>
-    <t>닭사부일체 이천본점</t>
-  </si>
-  <si>
-    <t>더포레</t>
-  </si>
-  <si>
-    <t>제로니모 커피하우스</t>
-  </si>
-  <si>
-    <t>막불감동</t>
-  </si>
-  <si>
-    <t>을밀대 평양냉면</t>
-  </si>
-  <si>
-    <t>빵공장라뜰리에김가</t>
-  </si>
-  <si>
-    <t>오늘제빵소</t>
-  </si>
-  <si>
-    <t>라온숨</t>
-  </si>
-  <si>
-    <t>대한횟집 만세튀김</t>
-  </si>
-  <si>
-    <t>신송당</t>
-  </si>
-  <si>
-    <t>이가네떡볶이</t>
-  </si>
-  <si>
-    <t>우스블랑</t>
-  </si>
-  <si>
-    <t>로컬릿</t>
-  </si>
-  <si>
-    <t>헤리베르</t>
-  </si>
-  <si>
-    <t>용호동할매팥빙수단팥죽 본점</t>
-  </si>
-  <si>
-    <t>숲마을</t>
-  </si>
-  <si>
-    <t>서울앵무새</t>
-  </si>
-  <si>
-    <t>골목식당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이진상회</t>
-  </si>
-  <si>
-    <t>백세삼계탕</t>
-  </si>
-  <si>
-    <t>북한산제빵소</t>
-  </si>
-  <si>
-    <t>베이커리 밤마을</t>
-  </si>
-  <si>
-    <t>수아당</t>
-  </si>
-  <si>
-    <t>계열사</t>
-  </si>
-  <si>
-    <t>옹근달</t>
-  </si>
-  <si>
-    <t>가람돌솥밥</t>
-  </si>
-  <si>
-    <t>중앙갈치식당</t>
-  </si>
-  <si>
-    <t>시간을 들이다</t>
-  </si>
-  <si>
-    <t>유포리막국수</t>
-  </si>
-  <si>
-    <t>포레스트</t>
-  </si>
-  <si>
-    <t>청수당</t>
-  </si>
-  <si>
-    <t>남보완해물칼국수 울산점</t>
-  </si>
-  <si>
-    <t>코트야드 메리어트 남대문 모모카페</t>
-  </si>
-  <si>
-    <t>송정집</t>
-  </si>
-  <si>
-    <t>가나안국수</t>
-  </si>
-  <si>
-    <t>한국집</t>
-  </si>
-  <si>
-    <t>익선잡방</t>
-  </si>
-  <si>
-    <t>진주냉면산홍 본점</t>
-  </si>
-  <si>
-    <t>무탄</t>
-  </si>
-  <si>
-    <t>릴리베이커리</t>
-  </si>
-  <si>
-    <t>순천미향 제주산방산본점</t>
-  </si>
-  <si>
-    <t>순금이떡볶이아차산점</t>
-  </si>
-  <si>
-    <t>태조감자국</t>
-  </si>
-  <si>
-    <t>두둑한한판</t>
-  </si>
-  <si>
-    <t>생방송 오늘 저녁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연경</t>
-  </si>
-  <si>
-    <t>보스대게</t>
-  </si>
-  <si>
-    <t>마이무</t>
-  </si>
-  <si>
-    <t>진아떡집</t>
-  </si>
-  <si>
-    <t>용성통닭 본점</t>
-  </si>
-  <si>
-    <t>오성당</t>
-  </si>
-  <si>
-    <t>등촌 최월선칼국수</t>
-  </si>
-  <si>
-    <t>강민주의들밥</t>
-  </si>
-  <si>
-    <t>경기떡집</t>
-  </si>
-  <si>
-    <t>정은숙초당순두부</t>
-  </si>
-  <si>
-    <t>풍미통닭</t>
-  </si>
-  <si>
-    <t>회동집</t>
-  </si>
-  <si>
-    <t>로타리식당</t>
-  </si>
-  <si>
-    <t>노라바</t>
-  </si>
-  <si>
-    <t>야바이</t>
-  </si>
-  <si>
-    <t>은하곱창</t>
-  </si>
-  <si>
-    <t>옛날진미국수</t>
-  </si>
-  <si>
-    <t>국물없는우동</t>
-  </si>
-  <si>
-    <t>한식미담길 인천공항제2여객터미널점</t>
-  </si>
-  <si>
-    <t>동원집</t>
-  </si>
-  <si>
-    <t>갈비1987</t>
-  </si>
-  <si>
-    <t>미가</t>
-  </si>
-  <si>
-    <t>혜화칼국수</t>
-  </si>
-  <si>
-    <t>복진면</t>
-  </si>
-  <si>
-    <t>모닝 와이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>씨엘비베이커리</t>
-  </si>
-  <si>
-    <t>강릉짬뽕순두부 동화가든 본점</t>
-  </si>
-  <si>
-    <t>춘천통나무집닭갈비</t>
-  </si>
-  <si>
-    <t>나정순할매쭈꾸미</t>
-  </si>
-  <si>
-    <t>빕스 대방점</t>
-  </si>
-  <si>
-    <t>동동국수집</t>
-  </si>
-  <si>
-    <t>더아리엘 목동점</t>
-  </si>
-  <si>
-    <t>대원당</t>
-  </si>
-  <si>
-    <t>팔당초계국수본점</t>
-  </si>
-  <si>
-    <t>맘모스베이커리</t>
-  </si>
-  <si>
-    <t>마복림떡볶이</t>
-  </si>
-  <si>
-    <t>뚱보할매김밥집</t>
-  </si>
-  <si>
-    <t>태평소국밥</t>
-  </si>
-  <si>
-    <t>궁전제과 충장점</t>
-  </si>
-  <si>
-    <t>한일옥</t>
-  </si>
-  <si>
-    <t>본수원갈비</t>
-  </si>
-  <si>
-    <t>춘심이네 본점</t>
-  </si>
-  <si>
-    <t>일호점미역</t>
-  </si>
-  <si>
-    <t>오씨칼국수</t>
-  </si>
-  <si>
-    <t>팀호완 삼성점</t>
-  </si>
-  <si>
-    <t>청어람 망원점</t>
-  </si>
-  <si>
-    <t>청진옥</t>
-  </si>
-  <si>
-    <t>오뎅식당</t>
-  </si>
-  <si>
-    <t>조조칼국수 본점</t>
-  </si>
-  <si>
-    <t>맛있는 녀석들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생방송 투데이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 노티드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1780,11 +1824,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9880D459-8180-45CD-8478-1590DB41BA9B}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="21" width="21.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1812,1585 +1859,1585 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K1" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="L1" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="M1" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="N1" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="O1" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="P1" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="Q1" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="R1" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="S1" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="T1" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>424</v>
       </c>
       <c r="K2" t="s">
-        <v>197</v>
+        <v>455</v>
       </c>
       <c r="L2" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="N2" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="O2" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="P2" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="Q2" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="R2" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="S2" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="T2" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>425</v>
       </c>
       <c r="K3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="L3" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="M3" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="N3" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="O3" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="P3" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="Q3" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="R3" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="S3" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="T3" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
       <c r="I4" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>426</v>
       </c>
       <c r="K4" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="L4" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="M4" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="N4" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="O4" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="P4" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="Q4" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="R4" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="S4" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="T4" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
       <c r="I5" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
+        <v>427</v>
       </c>
       <c r="K5" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="L5" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="M5" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="N5" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="O5" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="P5" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="Q5" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="R5" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="S5" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="T5" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
       <c r="I6" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>428</v>
       </c>
       <c r="K6" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="L6" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="M6" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="N6" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="O6" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="P6" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="Q6" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="R6" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="S6" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="T6" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
       <c r="I7" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="J7" t="s">
-        <v>147</v>
+        <v>429</v>
       </c>
       <c r="K7" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="L7" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="M7" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="N7" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="O7" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="P7" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="Q7" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="R7" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="S7" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="T7" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="K8" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="L8" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="M8" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="O8" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="P8" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="Q8" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="R8" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="S8" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="T8" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="J9" t="s">
-        <v>148</v>
+        <v>431</v>
       </c>
       <c r="K9" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="L9" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="M9" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="N9" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="O9" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="P9" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="Q9" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="R9" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="S9" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="T9" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="J10" t="s">
-        <v>228</v>
+        <v>432</v>
       </c>
       <c r="K10" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="M10" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="N10" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="O10" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="P10" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="Q10" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="R10" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="S10" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="T10" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>433</v>
       </c>
       <c r="K11" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="L11" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="M11" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="N11" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="O11" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="P11" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="Q11" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="R11" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="S11" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="T11" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>434</v>
       </c>
       <c r="K12" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="L12" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="M12" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="N12" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="O12" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="P12" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="Q12" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="R12" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="S12" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="T12" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>435</v>
       </c>
       <c r="K13" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="M13" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="N13" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="O13" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="P13" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="Q13" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="R13" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="S13" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="T13" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>436</v>
       </c>
       <c r="K14" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="M14" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="N14" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="O14" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="P14" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="Q14" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="R14" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="S14" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="T14" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>414</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>437</v>
       </c>
       <c r="K15" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="M15" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="N15" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="O15" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="P15" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="Q15" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="R15" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="S15" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="T15" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>421</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>438</v>
       </c>
       <c r="K16" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="M16" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="N16" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="O16" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="P16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="Q16" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="R16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="S16" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="T16" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>413</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>439</v>
       </c>
       <c r="K17" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="N17" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="O17" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="P17" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="Q17" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="R17" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="S17" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="T17" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>440</v>
       </c>
       <c r="K18" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="N18" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="O18" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="P18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="Q18" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="R18" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="S18" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="T18" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>423</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>441</v>
       </c>
       <c r="K19" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="N19" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="O19" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="P19" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="Q19" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="R19" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="S19" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="T19" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>422</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>442</v>
       </c>
       <c r="K20" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="N20" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="O20" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="P20" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="Q20" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="R20" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="S20" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="T20" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>443</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="M21" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="N21" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="O21" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="P21" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="Q21" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="R21" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="S21" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="T21" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
+        <v>444</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="N22" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="O22" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="P22" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="Q22" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="R22" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="S22" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="T22" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>445</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="L23" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="N23" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="O23" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="Q23" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="R23" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
       <c r="S23" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="T23" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I24" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="J24" t="s">
-        <v>164</v>
+        <v>446</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="M24" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="N24" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="P24" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="Q24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R24" t="s">
-        <v>421</v>
+        <v>376</v>
       </c>
       <c r="S24" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="T24" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="J25" t="s">
-        <v>165</v>
+        <v>447</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="L25" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="M25" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="N25" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="O25" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="P25" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="Q25" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="R25" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="S25" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="T25" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="I26" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="J26" t="s">
-        <v>166</v>
+        <v>448</v>
       </c>
       <c r="K26" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="M26" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="N26" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="P26" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="Q26" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="R26" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
       <c r="S26" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="T26" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I27" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="J27" t="s">
-        <v>167</v>
+        <v>449</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="N27" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="O27" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="P27" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="Q27" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="R27" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="S27" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="T27" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="J28" t="s">
-        <v>168</v>
+        <v>453</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="M28" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="P28" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="Q28" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="R28" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="S28" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="T28" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="I29" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="J29" t="s">
-        <v>169</v>
+        <v>452</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>454</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="M29" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="N29" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="O29" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="P29" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="Q29" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="R29" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="S29" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="T29" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="J30" t="s">
-        <v>170</v>
+        <v>451</v>
       </c>
       <c r="K30" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="M30" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="P30" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="Q30" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="R30" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
       <c r="S30" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
       <c r="T30" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="J31" t="s">
-        <v>171</v>
+        <v>450</v>
       </c>
       <c r="K31" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="M31" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="N31" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="O31" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="P31" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="Q31" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="R31" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="S31" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="T31" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/output/음식점 모음.xlsx
+++ b/output/음식점 모음.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sbr\restaurant-for-media\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666B3431-93C5-4420-ADB3-A61451CB7B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20550" windowHeight="14250" xr2:uid="{83B19DF2-E860-4C3F-AD12-FA3CF2B0A233}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20556" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -860,10 +854,6 @@
     <t>카페 차 성수점</t>
   </si>
   <si>
-    <t>전지적참견시점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>슬지네찐빵 슬지제빵소</t>
   </si>
   <si>
@@ -1458,14 +1448,18 @@
   </si>
   <si>
     <t>카페 노티드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전참시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1568,7 +1562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1620,7 +1614,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1814,26 +1808,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9880D459-8180-45CD-8478-1590DB41BA9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="21" width="21.375" customWidth="1"/>
+    <col min="1" max="21" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1871,33 +1865,33 @@
         <v>214</v>
       </c>
       <c r="M1" t="s">
-        <v>273</v>
+        <v>455</v>
       </c>
       <c r="N1" t="s">
         <v>245</v>
       </c>
       <c r="O1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S1" t="s">
+        <v>408</v>
+      </c>
+      <c r="T1" t="s">
         <v>409</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>411</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1924,10 +1918,10 @@
         <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L2" t="s">
         <v>184</v>
@@ -1939,30 +1933,30 @@
         <v>215</v>
       </c>
       <c r="O2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q2" t="s">
         <v>155</v>
       </c>
       <c r="R2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S2" t="s">
         <v>184</v>
       </c>
       <c r="T2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1986,7 +1980,7 @@
         <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K3" t="s">
         <v>155</v>
@@ -2001,25 +1995,25 @@
         <v>216</v>
       </c>
       <c r="O3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S3" t="s">
         <v>246</v>
       </c>
       <c r="T3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2048,7 +2042,7 @@
         <v>132</v>
       </c>
       <c r="J4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K4" t="s">
         <v>156</v>
@@ -2063,25 +2057,25 @@
         <v>217</v>
       </c>
       <c r="O4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S4" t="s">
         <v>248</v>
       </c>
       <c r="T4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2110,7 +2104,7 @@
         <v>133</v>
       </c>
       <c r="J5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K5" t="s">
         <v>157</v>
@@ -2125,33 +2119,33 @@
         <v>218</v>
       </c>
       <c r="O5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D6" t="s">
         <v>38</v>
@@ -2169,7 +2163,7 @@
         <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K6" t="s">
         <v>158</v>
@@ -2184,30 +2178,30 @@
         <v>219</v>
       </c>
       <c r="O6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
@@ -2228,7 +2222,7 @@
         <v>134</v>
       </c>
       <c r="J7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K7" t="s">
         <v>159</v>
@@ -2243,25 +2237,25 @@
         <v>220</v>
       </c>
       <c r="O7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q7" t="s">
+        <v>336</v>
+      </c>
+      <c r="R7" t="s">
         <v>337</v>
       </c>
-      <c r="R7" t="s">
-        <v>338</v>
-      </c>
       <c r="S7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2287,7 +2281,7 @@
         <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K8" t="s">
         <v>160</v>
@@ -2302,30 +2296,30 @@
         <v>221</v>
       </c>
       <c r="O8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q8" t="s">
         <v>159</v>
       </c>
       <c r="R8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
@@ -2346,7 +2340,7 @@
         <v>136</v>
       </c>
       <c r="J9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K9" t="s">
         <v>161</v>
@@ -2361,25 +2355,25 @@
         <v>222</v>
       </c>
       <c r="O9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="T9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -2405,7 +2399,7 @@
         <v>137</v>
       </c>
       <c r="J10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K10" t="s">
         <v>162</v>
@@ -2420,30 +2414,30 @@
         <v>223</v>
       </c>
       <c r="O10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="T10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -2464,7 +2458,7 @@
         <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K11" t="s">
         <v>163</v>
@@ -2479,25 +2473,25 @@
         <v>224</v>
       </c>
       <c r="O11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P11" t="s">
         <v>217</v>
       </c>
       <c r="Q11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -2523,7 +2517,7 @@
         <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K12" t="s">
         <v>164</v>
@@ -2538,25 +2532,25 @@
         <v>225</v>
       </c>
       <c r="O12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R12" t="s">
         <v>169</v>
       </c>
       <c r="S12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="T12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -2579,7 +2573,7 @@
         <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K13" t="s">
         <v>165</v>
@@ -2594,25 +2588,25 @@
         <v>226</v>
       </c>
       <c r="O13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R13" t="s">
         <v>266</v>
       </c>
       <c r="S13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="T13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -2632,7 +2626,7 @@
         <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K14" t="s">
         <v>166</v>
@@ -2647,30 +2641,30 @@
         <v>227</v>
       </c>
       <c r="O14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
@@ -2685,7 +2679,7 @@
         <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K15" t="s">
         <v>167</v>
@@ -2700,25 +2694,25 @@
         <v>228</v>
       </c>
       <c r="O15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R15" t="s">
         <v>179</v>
       </c>
       <c r="S15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -2726,7 +2720,7 @@
         <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
@@ -2738,7 +2732,7 @@
         <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K16" t="s">
         <v>168</v>
@@ -2753,27 +2747,27 @@
         <v>229</v>
       </c>
       <c r="O16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R16" t="s">
         <v>64</v>
       </c>
       <c r="S16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B17" t="s">
         <v>98</v>
@@ -2788,7 +2782,7 @@
         <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K17" t="s">
         <v>169</v>
@@ -2803,25 +2797,25 @@
         <v>230</v>
       </c>
       <c r="O17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="S17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -2838,7 +2832,7 @@
         <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K18" t="s">
         <v>170</v>
@@ -2853,25 +2847,25 @@
         <v>231</v>
       </c>
       <c r="O18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -2879,7 +2873,7 @@
         <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E19" t="s">
         <v>107</v>
@@ -2888,7 +2882,7 @@
         <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K19" t="s">
         <v>171</v>
@@ -2903,30 +2897,30 @@
         <v>232</v>
       </c>
       <c r="O19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="T19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E20" t="s">
         <v>109</v>
@@ -2935,7 +2929,7 @@
         <v>146</v>
       </c>
       <c r="J20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K20" t="s">
         <v>172</v>
@@ -2950,25 +2944,25 @@
         <v>233</v>
       </c>
       <c r="O20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="T20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -2979,7 +2973,7 @@
         <v>147</v>
       </c>
       <c r="J21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K21" t="s">
         <v>173</v>
@@ -2994,25 +2988,25 @@
         <v>234</v>
       </c>
       <c r="O21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q21" t="s">
         <v>221</v>
       </c>
       <c r="R21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -3023,7 +3017,7 @@
         <v>148</v>
       </c>
       <c r="J22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K22" t="s">
         <v>174</v>
@@ -3038,25 +3032,25 @@
         <v>235</v>
       </c>
       <c r="O22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="S22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -3067,7 +3061,7 @@
         <v>146</v>
       </c>
       <c r="J23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K23" t="s">
         <v>175</v>
@@ -3082,16 +3076,16 @@
         <v>236</v>
       </c>
       <c r="O23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P23" t="s">
         <v>169</v>
       </c>
       <c r="Q23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S23" t="s">
         <v>257</v>
@@ -3100,7 +3094,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -3111,7 +3105,7 @@
         <v>131</v>
       </c>
       <c r="J24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K24" t="s">
         <v>176</v>
@@ -3126,25 +3120,25 @@
         <v>237</v>
       </c>
       <c r="O24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q24" t="s">
         <v>9</v>
       </c>
       <c r="R24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -3155,7 +3149,7 @@
         <v>149</v>
       </c>
       <c r="J25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K25" t="s">
         <v>177</v>
@@ -3170,25 +3164,25 @@
         <v>238</v>
       </c>
       <c r="O25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="T25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -3199,7 +3193,7 @@
         <v>150</v>
       </c>
       <c r="J26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K26" t="s">
         <v>178</v>
@@ -3214,25 +3208,25 @@
         <v>239</v>
       </c>
       <c r="O26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -3243,7 +3237,7 @@
         <v>151</v>
       </c>
       <c r="J27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K27" t="s">
         <v>179</v>
@@ -3258,25 +3252,25 @@
         <v>240</v>
       </c>
       <c r="O27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S27" t="s">
         <v>259</v>
       </c>
       <c r="T27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -3287,7 +3281,7 @@
         <v>152</v>
       </c>
       <c r="J28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K28" t="s">
         <v>180</v>
@@ -3302,25 +3296,25 @@
         <v>241</v>
       </c>
       <c r="O28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P28" t="s">
         <v>200</v>
       </c>
       <c r="Q28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T28" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -3331,10 +3325,10 @@
         <v>153</v>
       </c>
       <c r="J29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L29" t="s">
         <v>211</v>
@@ -3346,30 +3340,30 @@
         <v>242</v>
       </c>
       <c r="O29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20">
       <c r="I30" t="s">
         <v>131</v>
       </c>
       <c r="J30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K30" t="s">
         <v>181</v>
@@ -3384,30 +3378,30 @@
         <v>243</v>
       </c>
       <c r="O30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20">
       <c r="I31" t="s">
         <v>154</v>
       </c>
       <c r="J31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K31" t="s">
         <v>182</v>
@@ -3422,22 +3416,22 @@
         <v>244</v>
       </c>
       <c r="O31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/output/음식점 모음.xlsx
+++ b/output/음식점 모음.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sbr\restaurant-for-media\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666B3431-93C5-4420-ADB3-A61451CB7B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FA4FBE-283B-4594-929F-9490D90EFC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20550" windowHeight="14250" xr2:uid="{83B19DF2-E860-4C3F-AD12-FA3CF2B0A233}"/>
+    <workbookView xWindow="17415" yWindow="1095" windowWidth="20565" windowHeight="14250" xr2:uid="{83B19DF2-E860-4C3F-AD12-FA3CF2B0A233}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="486">
   <si>
     <t>이영자</t>
   </si>
@@ -93,9 +94,6 @@
     <t>뽈살집</t>
   </si>
   <si>
-    <t>안춘선 배추갈비탕</t>
-  </si>
-  <si>
     <t>큰맘할매순댓국</t>
   </si>
   <si>
@@ -108,9 +106,6 @@
     <t>박용채의 대박터진 돈까스</t>
   </si>
   <si>
-    <t>서초동 평양면옥</t>
-  </si>
-  <si>
     <t>태화원</t>
   </si>
   <si>
@@ -144,9 +139,6 @@
     <t>미미미 가든</t>
   </si>
   <si>
-    <t>김북순큰잠비집</t>
-  </si>
-  <si>
     <t>원조수구레</t>
   </si>
   <si>
@@ -159,9 +151,6 @@
     <t>돝고기</t>
   </si>
   <si>
-    <t>피자헤븐</t>
-  </si>
-  <si>
     <t>빵곱창</t>
   </si>
   <si>
@@ -509,9 +498,6 @@
     <t>애플하우스</t>
   </si>
   <si>
-    <t>다운타우너 한남</t>
-  </si>
-  <si>
     <t>서촌스코프</t>
   </si>
   <si>
@@ -685,9 +671,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디라이프스타일키친 광화문점</t>
-  </si>
-  <si>
     <t>속초붉은대게수산</t>
   </si>
   <si>
@@ -782,21 +765,12 @@
     <t>성심당 본점</t>
   </si>
   <si>
-    <t>안성휴게소(부산방향)</t>
-  </si>
-  <si>
     <t>명동교자 본점</t>
   </si>
   <si>
     <t>망향휴게소</t>
   </si>
   <si>
-    <t>금강휴게소(부산방향)</t>
-  </si>
-  <si>
-    <t>서울만남의광장(부산방향)</t>
-  </si>
-  <si>
     <t>하우스 베이커리</t>
   </si>
   <si>
@@ -860,13 +834,6 @@
     <t>카페 차 성수점</t>
   </si>
   <si>
-    <t>전지적참견시점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬지네찐빵 슬지제빵소</t>
-  </si>
-  <si>
     <t>메밀꽃필무렵</t>
   </si>
   <si>
@@ -967,9 +934,6 @@
     <t>글린공원</t>
   </si>
   <si>
-    <t>어거스트 힐 강남점</t>
-  </si>
-  <si>
     <t>삼고집 파주점</t>
   </si>
   <si>
@@ -1039,425 +1003,566 @@
     <t>서울앵무새</t>
   </si>
   <si>
+    <t>이진상회</t>
+  </si>
+  <si>
+    <t>백세삼계탕</t>
+  </si>
+  <si>
+    <t>북한산제빵소</t>
+  </si>
+  <si>
+    <t>베이커리 밤마을</t>
+  </si>
+  <si>
+    <t>수아당</t>
+  </si>
+  <si>
+    <t>계열사</t>
+  </si>
+  <si>
+    <t>옹근달</t>
+  </si>
+  <si>
+    <t>가람돌솥밥</t>
+  </si>
+  <si>
+    <t>중앙갈치식당</t>
+  </si>
+  <si>
+    <t>시간을 들이다</t>
+  </si>
+  <si>
+    <t>유포리막국수</t>
+  </si>
+  <si>
+    <t>포레스트</t>
+  </si>
+  <si>
+    <t>청수당</t>
+  </si>
+  <si>
+    <t>남보완해물칼국수 울산점</t>
+  </si>
+  <si>
+    <t>코트야드 메리어트 남대문 모모카페</t>
+  </si>
+  <si>
+    <t>송정집</t>
+  </si>
+  <si>
+    <t>가나안국수</t>
+  </si>
+  <si>
+    <t>한국집</t>
+  </si>
+  <si>
+    <t>익선잡방</t>
+  </si>
+  <si>
+    <t>진주냉면산홍 본점</t>
+  </si>
+  <si>
+    <t>무탄</t>
+  </si>
+  <si>
+    <t>릴리베이커리</t>
+  </si>
+  <si>
+    <t>순천미향 제주산방산본점</t>
+  </si>
+  <si>
+    <t>순금이떡볶이아차산점</t>
+  </si>
+  <si>
+    <t>태조감자국</t>
+  </si>
+  <si>
+    <t>두둑한한판</t>
+  </si>
+  <si>
+    <t>생방송 오늘 저녁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연경</t>
+  </si>
+  <si>
+    <t>보스대게</t>
+  </si>
+  <si>
+    <t>마이무</t>
+  </si>
+  <si>
+    <t>진아떡집</t>
+  </si>
+  <si>
+    <t>오성당</t>
+  </si>
+  <si>
+    <t>등촌 최월선칼국수</t>
+  </si>
+  <si>
+    <t>강민주의들밥</t>
+  </si>
+  <si>
+    <t>경기떡집</t>
+  </si>
+  <si>
+    <t>정은숙초당순두부</t>
+  </si>
+  <si>
+    <t>풍미통닭</t>
+  </si>
+  <si>
+    <t>회동집</t>
+  </si>
+  <si>
+    <t>로타리식당</t>
+  </si>
+  <si>
+    <t>노라바</t>
+  </si>
+  <si>
+    <t>야바이</t>
+  </si>
+  <si>
+    <t>은하곱창</t>
+  </si>
+  <si>
+    <t>옛날진미국수</t>
+  </si>
+  <si>
+    <t>국물없는우동</t>
+  </si>
+  <si>
+    <t>한식미담길 인천공항제2여객터미널점</t>
+  </si>
+  <si>
+    <t>동원집</t>
+  </si>
+  <si>
+    <t>갈비1987</t>
+  </si>
+  <si>
+    <t>미가</t>
+  </si>
+  <si>
+    <t>혜화칼국수</t>
+  </si>
+  <si>
+    <t>복진면</t>
+  </si>
+  <si>
+    <t>모닝 와이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨엘비베이커리</t>
+  </si>
+  <si>
+    <t>춘천통나무집닭갈비</t>
+  </si>
+  <si>
+    <t>나정순할매쭈꾸미</t>
+  </si>
+  <si>
+    <t>빕스 대방점</t>
+  </si>
+  <si>
+    <t>동동국수집</t>
+  </si>
+  <si>
+    <t>더아리엘 목동점</t>
+  </si>
+  <si>
+    <t>대원당</t>
+  </si>
+  <si>
+    <t>팔당초계국수본점</t>
+  </si>
+  <si>
+    <t>맘모스베이커리</t>
+  </si>
+  <si>
+    <t>마복림떡볶이</t>
+  </si>
+  <si>
+    <t>뚱보할매김밥집</t>
+  </si>
+  <si>
+    <t>태평소국밥</t>
+  </si>
+  <si>
+    <t>궁전제과 충장점</t>
+  </si>
+  <si>
+    <t>한일옥</t>
+  </si>
+  <si>
+    <t>본수원갈비</t>
+  </si>
+  <si>
+    <t>춘심이네 본점</t>
+  </si>
+  <si>
+    <t>일호점미역</t>
+  </si>
+  <si>
+    <t>오씨칼국수</t>
+  </si>
+  <si>
+    <t>팀호완 삼성점</t>
+  </si>
+  <si>
+    <t>청어람 망원점</t>
+  </si>
+  <si>
+    <t>청진옥</t>
+  </si>
+  <si>
+    <t>오뎅식당</t>
+  </si>
+  <si>
+    <t>조조칼국수 본점</t>
+  </si>
+  <si>
+    <t>맛있는 녀석들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생방송 투데이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산골농원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한방통닭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨일만두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간장 닭갈비 공주집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순심원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜런쌩 씰롬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고단백식당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지린성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시골집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전통아바이순대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부첼리하우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포천곱창전골</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그니엘부산더뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금돼지식당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드조선부산아리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이킹스 워프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차이나반점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가쯔렛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티파니돈까스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼오불고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소문난원조쌈밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쫀드기집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우두머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김유순대구뽈찜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영도뼈다귀해장국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천백돈까스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이가 텐푸라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코카모메</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랜드조선 부산 팔레드신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동상회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬리집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌쇠장작구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대게만찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가마솥 돼지갈비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이케아동부산점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연산낙지해물탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소문난순대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구로마쯔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명동돼지숯불갈비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일신슈퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나탄 약선요리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수영 돼지국밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 노티드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이맛이야 장작철판구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평양면옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안춘선 갈비배추탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전참시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김북순큰남비집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안성휴게소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금강휴게소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어거스트 힐 강남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강릉짬뽕순두부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용성통닭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성심당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운타우너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울만남의광장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디라이프스타일키친</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬지네찐빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연돈</t>
+  </si>
+  <si>
+    <t>오복함흥냉면</t>
+  </si>
+  <si>
+    <t>THE 신촌's 덮죽</t>
+  </si>
+  <si>
+    <t>스마일닭강정</t>
+  </si>
+  <si>
+    <t>여기가좋겠네</t>
+  </si>
+  <si>
+    <t>해미우시장</t>
+  </si>
+  <si>
+    <t>군포왕족발</t>
+  </si>
+  <si>
+    <t>갓몬스터</t>
+  </si>
+  <si>
+    <t>지니 피자</t>
+  </si>
+  <si>
+    <t>필동함박 본점</t>
+  </si>
+  <si>
+    <t>기찻길풍경 야채곱창</t>
+  </si>
+  <si>
+    <t>띠아낭</t>
+  </si>
+  <si>
+    <t>미소짓는돈까's집</t>
+  </si>
+  <si>
+    <t>헬로</t>
+  </si>
+  <si>
+    <t>사가정만두만</t>
+  </si>
+  <si>
+    <t>버거인</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>옹기종기 감자옹심이</t>
+  </si>
+  <si>
+    <t>만스김밥</t>
+  </si>
+  <si>
+    <t>부리또만나</t>
+  </si>
+  <si>
+    <t>버거스타일</t>
+  </si>
+  <si>
+    <t>추억의집밥</t>
+  </si>
+  <si>
+    <t>시장회집</t>
+  </si>
+  <si>
+    <t>맛짱할매의 멸치국수</t>
+  </si>
+  <si>
+    <t>마몽함박</t>
+  </si>
+  <si>
+    <t>쌤김밥</t>
+  </si>
+  <si>
+    <t>킹콩파스타</t>
+  </si>
+  <si>
+    <t>맛이나식당</t>
+  </si>
+  <si>
+    <t>일운충무김밥</t>
+  </si>
+  <si>
     <t>골목식당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이진상회</t>
-  </si>
-  <si>
-    <t>백세삼계탕</t>
-  </si>
-  <si>
-    <t>북한산제빵소</t>
-  </si>
-  <si>
-    <t>베이커리 밤마을</t>
-  </si>
-  <si>
-    <t>수아당</t>
-  </si>
-  <si>
-    <t>계열사</t>
-  </si>
-  <si>
-    <t>옹근달</t>
-  </si>
-  <si>
-    <t>가람돌솥밥</t>
-  </si>
-  <si>
-    <t>중앙갈치식당</t>
-  </si>
-  <si>
-    <t>시간을 들이다</t>
-  </si>
-  <si>
-    <t>유포리막국수</t>
-  </si>
-  <si>
-    <t>포레스트</t>
-  </si>
-  <si>
-    <t>청수당</t>
-  </si>
-  <si>
-    <t>남보완해물칼국수 울산점</t>
-  </si>
-  <si>
-    <t>코트야드 메리어트 남대문 모모카페</t>
-  </si>
-  <si>
-    <t>송정집</t>
-  </si>
-  <si>
-    <t>가나안국수</t>
-  </si>
-  <si>
-    <t>한국집</t>
-  </si>
-  <si>
-    <t>익선잡방</t>
-  </si>
-  <si>
-    <t>진주냉면산홍 본점</t>
-  </si>
-  <si>
-    <t>무탄</t>
-  </si>
-  <si>
-    <t>릴리베이커리</t>
-  </si>
-  <si>
-    <t>순천미향 제주산방산본점</t>
-  </si>
-  <si>
-    <t>순금이떡볶이아차산점</t>
-  </si>
-  <si>
-    <t>태조감자국</t>
-  </si>
-  <si>
-    <t>두둑한한판</t>
-  </si>
-  <si>
-    <t>생방송 오늘 저녁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연경</t>
-  </si>
-  <si>
-    <t>보스대게</t>
-  </si>
-  <si>
-    <t>마이무</t>
-  </si>
-  <si>
-    <t>진아떡집</t>
-  </si>
-  <si>
-    <t>용성통닭 본점</t>
-  </si>
-  <si>
-    <t>오성당</t>
-  </si>
-  <si>
-    <t>등촌 최월선칼국수</t>
-  </si>
-  <si>
-    <t>강민주의들밥</t>
-  </si>
-  <si>
-    <t>경기떡집</t>
-  </si>
-  <si>
-    <t>정은숙초당순두부</t>
-  </si>
-  <si>
-    <t>풍미통닭</t>
-  </si>
-  <si>
-    <t>회동집</t>
-  </si>
-  <si>
-    <t>로타리식당</t>
-  </si>
-  <si>
-    <t>노라바</t>
-  </si>
-  <si>
-    <t>야바이</t>
-  </si>
-  <si>
-    <t>은하곱창</t>
-  </si>
-  <si>
-    <t>옛날진미국수</t>
-  </si>
-  <si>
-    <t>국물없는우동</t>
-  </si>
-  <si>
-    <t>한식미담길 인천공항제2여객터미널점</t>
-  </si>
-  <si>
-    <t>동원집</t>
-  </si>
-  <si>
-    <t>갈비1987</t>
-  </si>
-  <si>
-    <t>미가</t>
-  </si>
-  <si>
-    <t>혜화칼국수</t>
-  </si>
-  <si>
-    <t>복진면</t>
-  </si>
-  <si>
-    <t>모닝 와이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>씨엘비베이커리</t>
-  </si>
-  <si>
-    <t>강릉짬뽕순두부 동화가든 본점</t>
-  </si>
-  <si>
-    <t>춘천통나무집닭갈비</t>
-  </si>
-  <si>
-    <t>나정순할매쭈꾸미</t>
-  </si>
-  <si>
-    <t>빕스 대방점</t>
-  </si>
-  <si>
-    <t>동동국수집</t>
-  </si>
-  <si>
-    <t>더아리엘 목동점</t>
-  </si>
-  <si>
-    <t>대원당</t>
-  </si>
-  <si>
-    <t>팔당초계국수본점</t>
-  </si>
-  <si>
-    <t>맘모스베이커리</t>
-  </si>
-  <si>
-    <t>마복림떡볶이</t>
-  </si>
-  <si>
-    <t>뚱보할매김밥집</t>
-  </si>
-  <si>
-    <t>태평소국밥</t>
-  </si>
-  <si>
-    <t>궁전제과 충장점</t>
-  </si>
-  <si>
-    <t>한일옥</t>
-  </si>
-  <si>
-    <t>본수원갈비</t>
-  </si>
-  <si>
-    <t>춘심이네 본점</t>
-  </si>
-  <si>
-    <t>일호점미역</t>
-  </si>
-  <si>
-    <t>오씨칼국수</t>
-  </si>
-  <si>
-    <t>팀호완 삼성점</t>
-  </si>
-  <si>
-    <t>청어람 망원점</t>
-  </si>
-  <si>
-    <t>청진옥</t>
-  </si>
-  <si>
-    <t>오뎅식당</t>
-  </si>
-  <si>
-    <t>조조칼국수 본점</t>
-  </si>
-  <si>
-    <t>맛있는 녀석들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생방송 투데이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산골농원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이맛이야 장작철판구이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한방통닭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨일만두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간장 닭갈비 공주집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순심원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜런쌩 씰롬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고단백식당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지린성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시골집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전통아바이순대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부첼리하우스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포천곱창전골</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시그니엘부산더뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금돼지식당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랜드조선부산아리아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이킹스 워프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차이나반점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가쯔렛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티파니돈까스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼오불고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소문난원조쌈밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쫀드기집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우두머리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김유순대구뽈찜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영도뼈다귀해장국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천백돈까스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이가 텐푸라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코카모메</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그랜드조선 부산 팔레드신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안동상회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬리집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌쇠장작구이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대게만찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생선구이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가마솥 돼지갈비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이케아동부산점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연산낙지해물탕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소문난순대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구로마쯔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명동돼지숯불갈비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일신슈퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나탄 약선요리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수영 돼지국밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페 노티드</t>
+    <t>경복식당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1824,13 +1929,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9880D459-8180-45CD-8478-1590DB41BA9B}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="21" width="21.375" customWidth="1"/>
+    <col min="1" max="15" width="21.375" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="20" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -1859,45 +1966,45 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s">
-        <v>273</v>
+        <v>443</v>
       </c>
       <c r="N1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="P1" t="s">
-        <v>332</v>
+        <v>484</v>
       </c>
       <c r="Q1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="R1" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="S1" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="T1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1921,40 +2028,40 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="K2" t="s">
+        <v>439</v>
+      </c>
+      <c r="L2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" t="s">
+        <v>240</v>
+      </c>
+      <c r="N2" t="s">
+        <v>453</v>
+      </c>
+      <c r="O2" t="s">
+        <v>454</v>
+      </c>
+      <c r="P2" t="s">
         <v>455</v>
       </c>
-      <c r="L2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N2" t="s">
-        <v>215</v>
-      </c>
-      <c r="O2" t="s">
-        <v>274</v>
-      </c>
-      <c r="P2" t="s">
-        <v>305</v>
-      </c>
       <c r="Q2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="R2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="S2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="T2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -1962,7 +2069,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1974,1470 +2081,1467 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M3" t="s">
-        <v>247</v>
+        <v>445</v>
       </c>
       <c r="N3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="P3" t="s">
-        <v>306</v>
+        <v>456</v>
       </c>
       <c r="Q3" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="R3" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="S3" t="s">
-        <v>246</v>
+        <v>450</v>
       </c>
       <c r="T3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J4" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="K4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="N4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="O4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="P4" t="s">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="Q4" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="R4" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="S4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="T4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>444</v>
+      </c>
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="K5" t="s">
-        <v>157</v>
+        <v>451</v>
       </c>
       <c r="L5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="N5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="P5" t="s">
-        <v>308</v>
+        <v>458</v>
       </c>
       <c r="Q5" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="R5" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="S5" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="T5" t="s">
-        <v>308</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" t="s">
         <v>412</v>
       </c>
-      <c r="B6" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6" t="s">
-        <v>420</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" t="s">
-        <v>428</v>
-      </c>
       <c r="K6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M6" t="s">
-        <v>250</v>
+        <v>446</v>
       </c>
       <c r="N6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="O6" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="P6" t="s">
-        <v>309</v>
+        <v>459</v>
       </c>
       <c r="Q6" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="R6" t="s">
-        <v>364</v>
+        <v>449</v>
       </c>
       <c r="S6" t="s">
-        <v>386</v>
+        <v>448</v>
       </c>
       <c r="T6" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
-        <v>417</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="K7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M7" t="s">
-        <v>251</v>
+        <v>452</v>
       </c>
       <c r="N7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="O7" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="P7" t="s">
-        <v>310</v>
+        <v>485</v>
       </c>
       <c r="Q7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="R7" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="S7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="T7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="K8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="P8" t="s">
-        <v>311</v>
+        <v>460</v>
       </c>
       <c r="Q8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="R8" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="S8" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="T8" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="K9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M9" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="O9" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="P9" t="s">
-        <v>312</v>
+        <v>461</v>
       </c>
       <c r="Q9" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="R9" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="S9" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="T9" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="K10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M10" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="N10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="O10" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="P10" t="s">
-        <v>313</v>
+        <v>462</v>
       </c>
       <c r="Q10" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="R10" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="S10" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="T10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" t="s">
-        <v>415</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="K11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M11" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O11" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>463</v>
       </c>
       <c r="Q11" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="R11" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="S11" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="T11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
         <v>72</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>73</v>
       </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="K12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" t="s">
+        <v>189</v>
+      </c>
+      <c r="M12" t="s">
+        <v>246</v>
+      </c>
+      <c r="N12" t="s">
+        <v>219</v>
+      </c>
+      <c r="O12" t="s">
+        <v>273</v>
+      </c>
+      <c r="P12" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>328</v>
+      </c>
+      <c r="R12" t="s">
         <v>164</v>
       </c>
-      <c r="L12" t="s">
-        <v>194</v>
-      </c>
-      <c r="M12" t="s">
-        <v>255</v>
-      </c>
-      <c r="N12" t="s">
-        <v>225</v>
-      </c>
-      <c r="O12" t="s">
-        <v>284</v>
-      </c>
-      <c r="P12" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>341</v>
-      </c>
-      <c r="R12" t="s">
-        <v>169</v>
-      </c>
       <c r="S12" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="T12" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" t="s">
-        <v>84</v>
-      </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="K13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M13" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="N13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="O13" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="P13" t="s">
-        <v>315</v>
+        <v>465</v>
       </c>
       <c r="Q13" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="R13" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="S13" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="T13" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
         <v>85</v>
       </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M14" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="N14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O14" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="P14" t="s">
-        <v>316</v>
+        <v>466</v>
       </c>
       <c r="Q14" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="R14" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="S14" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="T14" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="O15" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="P15" t="s">
-        <v>317</v>
+        <v>467</v>
       </c>
       <c r="Q15" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="R15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="S15" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="T15" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="N16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O16" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="P16" t="s">
-        <v>318</v>
+        <v>468</v>
       </c>
       <c r="Q16" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="R16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S16" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="T16" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J17" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="N17" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="O17" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="P17" t="s">
-        <v>319</v>
+        <v>469</v>
       </c>
       <c r="Q17" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="R17" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="S17" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="T17" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J18" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="N18" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O18" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="P18" t="s">
-        <v>320</v>
+        <v>470</v>
       </c>
       <c r="Q18" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="R18" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="S18" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="T18" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J19" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N19" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O19" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="P19" t="s">
-        <v>321</v>
+        <v>471</v>
       </c>
       <c r="Q19" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="R19" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="S19" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="T19" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J20" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="N20" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O20" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="P20" t="s">
-        <v>322</v>
+        <v>472</v>
       </c>
       <c r="Q20" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="R20" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="S20" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="T20" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J21" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="N21" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="O21" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="P21" t="s">
-        <v>323</v>
+        <v>473</v>
       </c>
       <c r="Q21" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="R21" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="S21" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="T21" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J22" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M22" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="N22" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P22" t="s">
-        <v>324</v>
+        <v>474</v>
       </c>
       <c r="Q22" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="R22" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="S22" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="T22" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J23" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="K23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M23" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>475</v>
       </c>
       <c r="Q23" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="R23" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="S23" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="T23" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="K24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M24" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="N24" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O24" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="P24" t="s">
-        <v>325</v>
+        <v>476</v>
       </c>
       <c r="Q24" t="s">
         <v>9</v>
       </c>
       <c r="R24" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="S24" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="T24" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J25" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="K25" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M25" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N25" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="P25" t="s">
-        <v>326</v>
+        <v>477</v>
       </c>
       <c r="Q25" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="R25" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="S25" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="T25" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J26" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="K26" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M26" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="P26" t="s">
-        <v>327</v>
+        <v>478</v>
       </c>
       <c r="Q26" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="R26" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="S26" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="T26" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J27" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="K27" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L27" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M27" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="N27" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s">
-        <v>328</v>
+        <v>479</v>
       </c>
       <c r="Q27" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="R27" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="S27" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="T27" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J28" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="K28" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="Q28" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="R28" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="S28" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="T28" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J29" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="K29" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="L29" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M29" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="O29" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P29" t="s">
-        <v>329</v>
+        <v>481</v>
       </c>
       <c r="Q29" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="R29" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="S29" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="T29" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="K30" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="N30" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="O30" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="P30" t="s">
-        <v>330</v>
+        <v>482</v>
       </c>
       <c r="Q30" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="R30" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="S30" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="T30" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J31" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="K31" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L31" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="N31" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="O31" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="P31" t="s">
-        <v>331</v>
+        <v>483</v>
       </c>
       <c r="Q31" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="R31" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="S31" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="T31" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3445,4 +3549,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803BE40A-8777-4C2E-ABD4-4BD8F7FC97AC}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="20" width="21.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>